--- a/isletme_sinav_takvimi.xlsx
+++ b/isletme_sinav_takvimi.xlsx
@@ -55,224 +55,224 @@
     <t>Cuma</t>
   </si>
   <si>
-    <t>Derslik 302 + Derslik 203: İşletmeye Giriş [0. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 301: Örgüt Sosyolojisi [İşletme Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 204: Araştırma Yöntemleri (Çift) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 101: Türk Dili I [1. Sınıf] - ÖĞRETMEN 4</t>
-  </si>
-  <si>
-    <t>Derslik 103: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Haluk SOYUER
-Derslik 204: Introduction to Business (Örgün + İ.Ö) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
-Derslik 211: Dijital Dönüşümün Yönetimi [İşletme Tezli] - Doç. Dr. Haydar YALÇIN</t>
-  </si>
-  <si>
-    <t>Derslik 110: Pazarlama Kuramı [İşletme Doktora] - Prof. Dr. G. Nazan GÜNAY
-Derslik 101: Örgüt Sosyolojisi [Yönetim Bilimi ve Organizasyon Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 208: Reklamcılık Yönetimi [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 105: E-Pazarlama [Pazarlama Tezli] - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 202: Muhasebe I [2. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 203: Stok Yönetimi [İşletme Tezli] - Doç. Dr. Aydın KOÇAK
-Derslik 303: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 209: Borçlar Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
-  </si>
-  <si>
-    <t>Derslik 103: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 101: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. Aydın KOÇAK
-Derslik 202: Ticaret Hukuku (Tasfiye) [0. Sınıf] - Doç. Dr. Sema AYDIN
-Derslik 208: Matematik-I (Çift) [1. Sınıf] - ÖĞRETMEN 2</t>
-  </si>
-  <si>
-    <t>Derslik 201: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] - Prof. Dr. Burak ÇAPRAZ
-Derslik 108: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 111: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 208: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 210: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 103: Global Marketing (Çift) [4. Sınıf] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 211: Örgütsel Davranış [İşletme Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 103: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 104: Muhasebe II (Tasfiye) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 303: Örgütsel Davranış [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 109: Tedarik Zinciri Yönetimi ve Lojistik [Üretim Yönetimi Tezli] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 102: Pazarlamada Güncel Konular [Pazarlama Tezli] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 302: Pazarlama Yönetimi [İşletme Tezli] - Prof. Dr. Aykan CANDEMİR
-Derslik 303: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 104: Yönetim Geliştirme [3. Sınıf] - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 109: Marketing Management I [2. Sınıf] - Prof. Dr. G. Nazan GÜNAY
-Derslik 209: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
-Derslik 104: Üretim ve İşlemler Yönetimi [İşletme Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 205: İşletme Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
-  </si>
-  <si>
-    <t>Derslik 111: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] - Prof. Dr. Haluk SOYUER
-Derslik 302: Tüketici Davranışları [İşletme Tezli] - Prof. Dr. G. Nazan GÜNAY
-Derslik 201: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
-  </si>
-  <si>
-    <t>Derslik 109: Introduction to Microeconomics [1. Sınıf] - ÖĞRETMEN 3
-Derslik 104: Stok Yönetimi [Üretim Yönetimi Tezli] - Doç. Dr. Aydın KOÇAK
-Derslik 201: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 111: Vestel İşletmecilik Seminerleri I [4. Sınıf] - Prof. Dr. G. Nazan GÜNAY
-Derslik 103: Bilgi Yönetimi [3. Sınıf] - Doç. Dr. İnanç KABASAKAL
-Derslik 110: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 102: Business [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 110: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] - Prof. Dr. Türker SUSMUŞ
-Derslik 211: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] - ÖĞRETMEN 5
-Derslik 302: Retailing I [4. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 302: Consumer Behavior (Tek) [3. Sınıf] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 108: Endüstriyel Pazarlama [Pazarlama Tezli] - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 205: Pazarlamada Güncel Konular [İşletme Tezli] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 103: Kariyer Planlama [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 203: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Derya İLİC
-Derslik 104: Muhasebe I (Örgün + İ.Ö.) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 202: Yönetimde Güncel Yaklaşımlar [İşletme Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 203: Mali Tablolar Analizi [3. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 204: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 109: Pazarlama Yönetimi [Pazarlama Tezli] - Prof. Dr. Aykan CANDEMİR
-Derslik 205: Hizmet Pazarlaması [İşletme Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 202: Üretim Çizelgeleme [Üretim Yönetimi Tezli] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 101: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Burak ÇAPRAZ
-Derslik 202: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
-Derslik 301: Üretim Çizelgeleme [İşletme Tezli] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 103: Enformetri [3. Sınıf] - Doç. Dr. Haydar YALÇIN
-Derslik 111: İstatistik I [2. Sınıf] - Doç. Dr. İnanç KABASAKAL
-Derslik 104: Yönetimde Güncel Yaklaşımlar [Yönetim Bilimi ve Organizasyon Tezli] - Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Derslik 101: Business I (Tasfiye) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
-Derslik 109: Teknoloji Yönetiminin Esasları [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
-Derslik 205: Araştırma Yöntemleri (Tek) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 211: Sosyoloji [1. Sınıf] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 301: Consumer Behavior (Çift) [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 302: E-Pazarlama [İşletme Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 210: Organizational Behavior (Tek) [2. Sınıf] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 303: Yatırım Yönetimi [3. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 101: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 301: System Analysis and Design [4. Sınıf] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 210: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] - Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Derslik 103: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] - Doç. Dr. Aydın KOÇAK
-Derslik 301: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] - Doç. Dr. Sema AYDIN
-Derslik 205: Organizational Behavior (Çift) [2. Sınıf] - Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Derslik 111: Matematik-I (Tek) [1. Sınıf] - ÖĞRETMEN 1
-Derslik 210: Human Resources Management [4. Sınıf] - Prof. Dr. Burak ÇAPRAZ
-Derslik 211: Operations Research I [3. Sınıf] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 202: Yönetim Muhasebesi [2. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 109: Hizmet Pazarlaması [Pazarlama Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 205: Sürdürülebilir Pazarlama [3. Sınıf] - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 204: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 103: Tüketici Davranışları [Pazarlama Tezli] - Prof. Dr. G. Nazan GÜNAY
-Derslik 104: Uygulamalı Finansal Piyasa İşlemleri (Örgün) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 302: Operations Management I [2. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 205: Financial Management I [3. Sınıf] - Prof. Dr. Dilek DEMİRHAN
-Derslik 201: Endüstriyel Pazarlama [İşletme Tezli] - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 104: Global Marketing (Tek) [4. Sınıf] - Prof. Dr. Aykan CANDEMİR
-Derslik 202: Management Consultancy [3. Sınıf] - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 104: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
-Derslik 203: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 202: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 205: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 204: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
-Derslik 303: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 109: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 105: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 203: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 103: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
-Derslik 205: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Doç. Dr. Sema AYDIN
-Derslik 302: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 109: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 202: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
-    <t>Derslik 104: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 303: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
-Derslik 211: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 102: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 203: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
-    <t>Derslik 101: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 205: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] - Doç. Dr. Haydar YALÇIN
-Derslik 105: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. İnanç KABASAKAL
-Derslik 202: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Derslik 110: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 302: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
-Derslik 102: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 105: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 205: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
-Derslik 111: Örgütler ve Yönetim [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Derya İLİC
-Derslik 208: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
-Derslik 110: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Keti VENTURA
-Derslik 303: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 103: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Aykan CANDEMİR
-Derslik 211: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 111: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Derya İLİC
-Derslik 104: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 108: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 110: Hizmet Pazarlaması [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Aykan CANDEMİR
-Derslik 101: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 102: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 109: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 303: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
-Derslik 111: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ</t>
+    <t>Derslik 110 + Derslik 108: Yatırım Yönetimi [3. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 203 + Derslik 211: Örgüt Sosyolojisi [İşletme Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 210 + Derslik 109: System Analysis and Design [4. Sınıf] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 111 + Derslik 202: Türk Dili I [1. Sınıf] - ÖĞRETMEN 4</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 210: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Haluk SOYUER
+Derslik 109 + Derslik 201: Enformetri [3. Sınıf] - Doç. Dr. Haydar YALÇIN
+Derslik 110 + Derslik 111: Business [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 202 + Derslik 203: Organizational Behavior (Tek) [2. Sınıf] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 109: Pazarlama Kuramı [İşletme Doktora] - Prof. Dr. G. Nazan GÜNAY
+Derslik 205 + Derslik 110: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. Aydın KOÇAK
+Derslik 108 + Derslik 104: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 303: Introduction to Business (Örgün + İ.Ö) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
+Derslik 109 + Derslik 101: Bilgi Yönetimi [3. Sınıf] - Doç. Dr. İnanç KABASAKAL
+Derslik 102 + Derslik 204: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 303: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 203 + Derslik 110: Reklamcılık Yönetimi [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 205 + Derslik 109: Ticaret Hukuku (Tasfiye) [0. Sınıf] - Doç. Dr. Sema AYDIN
+Derslik 209 + Derslik 208: Matematik-I (Çift) [1. Sınıf] - ÖĞRETMEN 2</t>
+  </si>
+  <si>
+    <t>Derslik 110 + Derslik 210: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Burak ÇAPRAZ
+Derslik 204 + Derslik 108: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 104 + Derslik 211: Üretim Çizelgeleme [Üretim Yönetimi Tezli] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 103 + Derslik 111: Human Resources Management [4. Sınıf] - Prof. Dr. Burak ÇAPRAZ
+Derslik 210 + Derslik 205: Tüketici Davranışları [Pazarlama Tezli] - Prof. Dr. G. Nazan GÜNAY
+Derslik 211 + Derslik 105: Pazarlamada Güncel Konular [İşletme Tezli] - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 102: Matematik-I (Tek) [1. Sınıf] - ÖĞRETMEN 1
+Derslik 103 + Derslik 111: Operations Management I [2. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 201 + Derslik 109: Endüstriyel Pazarlama [İşletme Tezli] - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 202: Yönetim Muhasebesi [2. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 108 + Derslik 111: Örgütsel Davranış [İşletme Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 204 + Derslik 105: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 103: Pazarlama Yönetimi [Pazarlama Tezli] - Prof. Dr. Aykan CANDEMİR
+Derslik 109 + Derslik 105: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Derya İLİC
+Derslik 111 + Derslik 110: Üretim Çizelgeleme [İşletme Tezli] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 109: Marketing Management I [2. Sınıf] - Prof. Dr. G. Nazan GÜNAY
+Derslik 202 + Derslik 101: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
+Derslik 201 + Derslik 110: İşletmeye Giriş [0. Sınıf] - Araş. Gör. Dr. Özgür BABACAN</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 201: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] - Prof. Dr. Haluk SOYUER
+Derslik 210 + Derslik 103: Tüketici Davranışları [İşletme Tezli] - Prof. Dr. G. Nazan GÜNAY
+Derslik 211 + Derslik 205: Yönetimde Güncel Yaklaşımlar [Yönetim Bilimi ve Organizasyon Tezli] - Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 208: Introduction to Microeconomics [1. Sınıf] - ÖĞRETMEN 3
+Derslik 110 + Derslik 204: Stok Yönetimi [Üretim Yönetimi Tezli] - Doç. Dr. Aydın KOÇAK
+Derslik 103 + Derslik 205: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 203 + Derslik 211: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 110 + Derslik 204: Vestel İşletmecilik Seminerleri I [4. Sınıf] - Prof. Dr. G. Nazan GÜNAY
+Derslik 201 + Derslik 101: İstatistik I [2. Sınıf] - Doç. Dr. İnanç KABASAKAL
+Derslik 111 + Derslik 203: Araştırma Yöntemleri (Çift) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 110: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] - Prof. Dr. Türker SUSMUŞ
+Derslik 205 + Derslik 104: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] - ÖĞRETMEN 5
+Derslik 209 + Derslik 103: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 205: İşletme Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 203 + Derslik 111: Hizmet Pazarlaması [İşletme Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 109 + Derslik 211: Global Marketing (Çift) [4. Sınıf] - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 103: Retailing I [4. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 211 + Derslik 102: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] - Prof. Dr. Burak ÇAPRAZ
+Derslik 303 + Derslik 101: Pazarlamada Güncel Konular [Pazarlama Tezli] - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 101: Consumer Behavior (Tek) [3. Sınıf] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 203 + Derslik 210: Endüstriyel Pazarlama [Pazarlama Tezli] - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 105 + Derslik 204: Uygulamalı Finansal Piyasa İşlemleri (Örgün) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 111 + Derslik 201: E-Pazarlama [İşletme Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 205 + Derslik 204: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 303 + Derslik 101: Operations Research I [3. Sınıf] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 105: Yönetimde Güncel Yaklaşımlar [İşletme Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 102 + Derslik 303: Tedarik Zinciri Yönetimi ve Lojistik [Üretim Yönetimi Tezli] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 111 + Derslik 103: Management Consultancy [3. Sınıf] - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 210: Muhasebe I [2. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 111 + Derslik 109: Sosyoloji [1. Sınıf] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 108 + Derslik 204: Üretim ve İşlemler Yönetimi [İşletme Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 111 + Derslik 201: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] - Doç. Dr. Aydın KOÇAK
+Derslik 110 + Derslik 101: Teknoloji Yönetiminin Esasları [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
+Derslik 108 + Derslik 208: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] - Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 110: Stok Yönetimi [İşletme Tezli] - Doç. Dr. Aydın KOÇAK
+Derslik 105 + Derslik 303: Örgüt Sosyolojisi [Yönetim Bilimi ve Organizasyon Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 211 + Derslik 205: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 109 + Derslik 208: Mali Tablolar Analizi [3. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 110: Business I (Tasfiye) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
+Derslik 303 + Derslik 101: Dijital Dönüşümün Yönetimi [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
+Derslik 105 + Derslik 109: Araştırma Yöntemleri (Tek) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 211 + Derslik 204: E-Pazarlama [Pazarlama Tezli] - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 110 + Derslik 101: Consumer Behavior (Çift) [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 201 + Derslik 105: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] - Doç. Dr. Sema AYDIN
+Derslik 303 + Derslik 202: Organizational Behavior (Çift) [2. Sınıf] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 102 + Derslik 203: Global Marketing (Tek) [4. Sınıf] - Prof. Dr. Aykan CANDEMİR</t>
+  </si>
+  <si>
+    <t>Derslik 104 + Derslik 204: Borçlar Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 108 + Derslik 109: Hizmet Pazarlaması [Pazarlama Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 101 + Derslik 203: Sürdürülebilir Pazarlama [3. Sınıf] - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 108: Kariyer Planlama [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 109 + Derslik 103: Örgütsel Davranış [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 101 + Derslik 202: Financial Management I [3. Sınıf] - Prof. Dr. Dilek DEMİRHAN</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 204: Pazarlama Yönetimi [İşletme Tezli] - Prof. Dr. Aykan CANDEMİR
+Derslik 101 + Derslik 105: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 208 + Derslik 110: Muhasebe II (Tasfiye) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 110: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 209 + Derslik 104: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
+Derslik 204 + Derslik 210: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 105: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 110 + Derslik 205: Yönetim Geliştirme [3. Sınıf] - Prof. Dr. Derya İLİC
+Derslik 211 + Derslik 103: Muhasebe I (Örgün + İ.Ö.) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 303: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
+Derslik 110 + Derslik 202: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 204 + Derslik 210: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 102 + Derslik 103: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 203 + Derslik 105: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Derslik 104 + Derslik 208: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
+Derslik 209 + Derslik 202: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
+Derslik 201 + Derslik 108: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
+Derslik 105 + Derslik 211: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] - Doç. Dr. Haydar YALÇIN
+Derslik 204 + Derslik 203: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 201: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
+Derslik 102 + Derslik 104: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 109 + Derslik 204: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 203 + Derslik 110: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 209 + Derslik 105: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 101: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
+Derslik 210 + Derslik 205: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. İnanç KABASAKAL
+Derslik 303 + Derslik 209: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 202 + Derslik 211: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 202: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Haluk SOYUER
+Derslik 110 + Derslik 203: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Doç. Dr. Sema AYDIN
+Derslik 103 + Derslik 108: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 109 + Derslik 102: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Aykan CANDEMİR</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 103: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 303 + Derslik 109: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
+Derslik 102 + Derslik 110: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Keti VENTURA
+Derslik 205 + Derslik 101: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 202: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 209 + Derslik 208: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
+Derslik 303 + Derslik 103: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
+Derslik 104 + Derslik 204: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 209: Hizmet Pazarlaması [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Aykan CANDEMİR
+Derslik 205 + Derslik 202: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 105 + Derslik 201: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 208 + Derslik 108: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 104 + Derslik 110: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 101 + Derslik 102: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 208 + Derslik 209: Örgütler ve Yönetim [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Derya İLİC
+Derslik 204 + Derslik 205: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 203: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 210 + Derslik 211: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Derya İLİC
+Derslik 303 + Derslik 108: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
+Derslik 101 + Derslik 208: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ</t>
   </si>
 </sst>
 </file>

--- a/isletme_sinav_takvimi.xlsx
+++ b/isletme_sinav_takvimi.xlsx
@@ -55,224 +55,224 @@
     <t>Cuma</t>
   </si>
   <si>
-    <t>Derslik 110 + Derslik 108: Yatırım Yönetimi [3. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 203 + Derslik 211: Örgüt Sosyolojisi [İşletme Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 210 + Derslik 109: System Analysis and Design [4. Sınıf] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 111 + Derslik 202: Türk Dili I [1. Sınıf] - ÖĞRETMEN 4</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 210: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Haluk SOYUER
-Derslik 109 + Derslik 201: Enformetri [3. Sınıf] - Doç. Dr. Haydar YALÇIN
-Derslik 110 + Derslik 111: Business [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 202 + Derslik 203: Organizational Behavior (Tek) [2. Sınıf] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 109: Pazarlama Kuramı [İşletme Doktora] - Prof. Dr. G. Nazan GÜNAY
-Derslik 205 + Derslik 110: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. Aydın KOÇAK
-Derslik 108 + Derslik 104: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 303: Introduction to Business (Örgün + İ.Ö) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
-Derslik 109 + Derslik 101: Bilgi Yönetimi [3. Sınıf] - Doç. Dr. İnanç KABASAKAL
-Derslik 102 + Derslik 204: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 303: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 203 + Derslik 110: Reklamcılık Yönetimi [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 205 + Derslik 109: Ticaret Hukuku (Tasfiye) [0. Sınıf] - Doç. Dr. Sema AYDIN
-Derslik 209 + Derslik 208: Matematik-I (Çift) [1. Sınıf] - ÖĞRETMEN 2</t>
-  </si>
-  <si>
-    <t>Derslik 110 + Derslik 210: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Burak ÇAPRAZ
-Derslik 204 + Derslik 108: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 104 + Derslik 211: Üretim Çizelgeleme [Üretim Yönetimi Tezli] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 103 + Derslik 111: Human Resources Management [4. Sınıf] - Prof. Dr. Burak ÇAPRAZ
-Derslik 210 + Derslik 205: Tüketici Davranışları [Pazarlama Tezli] - Prof. Dr. G. Nazan GÜNAY
-Derslik 211 + Derslik 105: Pazarlamada Güncel Konular [İşletme Tezli] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 102: Matematik-I (Tek) [1. Sınıf] - ÖĞRETMEN 1
-Derslik 103 + Derslik 111: Operations Management I [2. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 201 + Derslik 109: Endüstriyel Pazarlama [İşletme Tezli] - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 202: Yönetim Muhasebesi [2. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 108 + Derslik 111: Örgütsel Davranış [İşletme Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 204 + Derslik 105: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 103: Pazarlama Yönetimi [Pazarlama Tezli] - Prof. Dr. Aykan CANDEMİR
-Derslik 109 + Derslik 105: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Derya İLİC
-Derslik 111 + Derslik 110: Üretim Çizelgeleme [İşletme Tezli] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 109: Marketing Management I [2. Sınıf] - Prof. Dr. G. Nazan GÜNAY
-Derslik 202 + Derslik 101: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
-Derslik 201 + Derslik 110: İşletmeye Giriş [0. Sınıf] - Araş. Gör. Dr. Özgür BABACAN</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 201: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] - Prof. Dr. Haluk SOYUER
-Derslik 210 + Derslik 103: Tüketici Davranışları [İşletme Tezli] - Prof. Dr. G. Nazan GÜNAY
-Derslik 211 + Derslik 205: Yönetimde Güncel Yaklaşımlar [Yönetim Bilimi ve Organizasyon Tezli] - Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 208: Introduction to Microeconomics [1. Sınıf] - ÖĞRETMEN 3
-Derslik 110 + Derslik 204: Stok Yönetimi [Üretim Yönetimi Tezli] - Doç. Dr. Aydın KOÇAK
-Derslik 103 + Derslik 205: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 203 + Derslik 211: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 110 + Derslik 204: Vestel İşletmecilik Seminerleri I [4. Sınıf] - Prof. Dr. G. Nazan GÜNAY
-Derslik 201 + Derslik 101: İstatistik I [2. Sınıf] - Doç. Dr. İnanç KABASAKAL
-Derslik 111 + Derslik 203: Araştırma Yöntemleri (Çift) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 110: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] - Prof. Dr. Türker SUSMUŞ
-Derslik 205 + Derslik 104: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] - ÖĞRETMEN 5
-Derslik 209 + Derslik 103: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 205: İşletme Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 203 + Derslik 111: Hizmet Pazarlaması [İşletme Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 109 + Derslik 211: Global Marketing (Çift) [4. Sınıf] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 103: Retailing I [4. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 211 + Derslik 102: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] - Prof. Dr. Burak ÇAPRAZ
-Derslik 303 + Derslik 101: Pazarlamada Güncel Konular [Pazarlama Tezli] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 101: Consumer Behavior (Tek) [3. Sınıf] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 203 + Derslik 210: Endüstriyel Pazarlama [Pazarlama Tezli] - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 105 + Derslik 204: Uygulamalı Finansal Piyasa İşlemleri (Örgün) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 111 + Derslik 201: E-Pazarlama [İşletme Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 205 + Derslik 204: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 303 + Derslik 101: Operations Research I [3. Sınıf] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 105: Yönetimde Güncel Yaklaşımlar [İşletme Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 102 + Derslik 303: Tedarik Zinciri Yönetimi ve Lojistik [Üretim Yönetimi Tezli] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 111 + Derslik 103: Management Consultancy [3. Sınıf] - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 210: Muhasebe I [2. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 111 + Derslik 109: Sosyoloji [1. Sınıf] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 108 + Derslik 204: Üretim ve İşlemler Yönetimi [İşletme Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 111 + Derslik 201: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] - Doç. Dr. Aydın KOÇAK
-Derslik 110 + Derslik 101: Teknoloji Yönetiminin Esasları [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
-Derslik 108 + Derslik 208: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] - Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 110: Stok Yönetimi [İşletme Tezli] - Doç. Dr. Aydın KOÇAK
-Derslik 105 + Derslik 303: Örgüt Sosyolojisi [Yönetim Bilimi ve Organizasyon Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 211 + Derslik 205: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 109 + Derslik 208: Mali Tablolar Analizi [3. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 110: Business I (Tasfiye) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
-Derslik 303 + Derslik 101: Dijital Dönüşümün Yönetimi [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
-Derslik 105 + Derslik 109: Araştırma Yöntemleri (Tek) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 211 + Derslik 204: E-Pazarlama [Pazarlama Tezli] - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 110 + Derslik 101: Consumer Behavior (Çift) [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 201 + Derslik 105: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] - Doç. Dr. Sema AYDIN
-Derslik 303 + Derslik 202: Organizational Behavior (Çift) [2. Sınıf] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 102 + Derslik 203: Global Marketing (Tek) [4. Sınıf] - Prof. Dr. Aykan CANDEMİR</t>
-  </si>
-  <si>
-    <t>Derslik 104 + Derslik 204: Borçlar Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 108 + Derslik 109: Hizmet Pazarlaması [Pazarlama Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 101 + Derslik 203: Sürdürülebilir Pazarlama [3. Sınıf] - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 108: Kariyer Planlama [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 109 + Derslik 103: Örgütsel Davranış [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 101 + Derslik 202: Financial Management I [3. Sınıf] - Prof. Dr. Dilek DEMİRHAN</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 204: Pazarlama Yönetimi [İşletme Tezli] - Prof. Dr. Aykan CANDEMİR
-Derslik 101 + Derslik 105: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 208 + Derslik 110: Muhasebe II (Tasfiye) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 110: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 209 + Derslik 104: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
-Derslik 204 + Derslik 210: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 105: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 110 + Derslik 205: Yönetim Geliştirme [3. Sınıf] - Prof. Dr. Derya İLİC
-Derslik 211 + Derslik 103: Muhasebe I (Örgün + İ.Ö.) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 303: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
-Derslik 110 + Derslik 202: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 204 + Derslik 210: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 102 + Derslik 103: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 203 + Derslik 105: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Derslik 104 + Derslik 208: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
-Derslik 209 + Derslik 202: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 201 + Derslik 108: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
-Derslik 105 + Derslik 211: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] - Doç. Dr. Haydar YALÇIN
-Derslik 204 + Derslik 203: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 201: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
-Derslik 102 + Derslik 104: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 109 + Derslik 204: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 203 + Derslik 110: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 209 + Derslik 105: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 101: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 210 + Derslik 205: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. İnanç KABASAKAL
-Derslik 303 + Derslik 209: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 202 + Derslik 211: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 202: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 110 + Derslik 203: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Doç. Dr. Sema AYDIN
-Derslik 103 + Derslik 108: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 109 + Derslik 102: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Aykan CANDEMİR</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 103: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 303 + Derslik 109: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
-Derslik 102 + Derslik 110: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Keti VENTURA
-Derslik 205 + Derslik 101: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 202: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 209 + Derslik 208: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
-Derslik 303 + Derslik 103: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
-Derslik 104 + Derslik 204: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 209: Hizmet Pazarlaması [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Aykan CANDEMİR
-Derslik 205 + Derslik 202: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 105 + Derslik 201: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 208 + Derslik 108: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 104 + Derslik 110: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 101 + Derslik 102: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 208 + Derslik 209: Örgütler ve Yönetim [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Derya İLİC
-Derslik 204 + Derslik 205: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 203: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 210 + Derslik 211: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Derya İLİC
-Derslik 303 + Derslik 108: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
-Derslik 101 + Derslik 208: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ</t>
+    <t>Derslik 204 + Derslik 209: Sosyoloji [1. Sınıf] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 201 + Derslik 110: Teknoloji Yönetiminin Esasları [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
+Derslik 205 + Derslik 105: Ticaret Hukuku (Tasfiye) [0. Sınıf] - Doç. Dr. Sema AYDIN
+Derslik 102 + Derslik 203: Mali Tablolar Analizi [3. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 202: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Haluk SOYUER
+Derslik 101 + Derslik 205: Yatırım Yönetimi [3. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 209 + Derslik 201: Üretim ve İşlemler Yönetimi [İşletme Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 104 + Derslik 204: Pazarlama Kuramı [İşletme Doktora] - Prof. Dr. G. Nazan GÜNAY
+Derslik 203 + Derslik 201: Stok Yönetimi [Üretim Yönetimi Tezli] - Doç. Dr. Aydın KOÇAK
+Derslik 110 + Derslik 101: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 103 + Derslik 209: Dijital Dönüşümün Yönetimi [İşletme Tezli] - Doç. Dr. Haydar YALÇIN</t>
+  </si>
+  <si>
+    <t>Derslik 103 + Derslik 105: Business I (Tasfiye) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
+Derslik 102 + Derslik 202: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 104 + Derslik 205: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 204 + Derslik 109: Matematik-I (Çift) [1. Sınıf] - ÖĞRETMEN 2</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 210: İşletmeye Giriş [0. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 111 + Derslik 109: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. Aydın KOÇAK
+Derslik 104 + Derslik 203: Bilgi Yönetimi [3. Sınıf] - Doç. Dr. İnanç KABASAKAL</t>
+  </si>
+  <si>
+    <t>Derslik 110 + Derslik 201: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] - Prof. Dr. Burak ÇAPRAZ
+Derslik 111 + Derslik 210: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 303 + Derslik 103: Üretim Çizelgeleme [Üretim Yönetimi Tezli] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 104: E-Pazarlama [Pazarlama Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 209 + Derslik 204: Operations Management I [2. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 101 + Derslik 103: Muhasebe I (Örgün + İ.Ö.) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 111 + Derslik 204: Organizational Behavior (Tek) [2. Sınıf] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 101 + Derslik 108: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 103 + Derslik 109: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 102: Örgütsel Davranış [İşletme Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 111 + Derslik 103: Endüstriyel Pazarlama [Pazarlama Tezli] - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 105 + Derslik 204: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 110: Kariyer Planlama [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 111 + Derslik 105: Pazarlama Yönetimi [İşletme Tezli] - Prof. Dr. Aykan CANDEMİR
+Derslik 204 + Derslik 208: Yönetim Geliştirme [3. Sınıf] - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 103: Marketing Management I [2. Sınıf] - Prof. Dr. G. Nazan GÜNAY
+Derslik 211 + Derslik 101: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
+Derslik 108 + Derslik 203: Araştırma Yöntemleri (Çift) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 202 + Derslik 303: Türk Dili I [1. Sınıf] - ÖĞRETMEN 4</t>
+  </si>
+  <si>
+    <t>Derslik 111 + Derslik 104: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] - Prof. Dr. Haluk SOYUER
+Derslik 303 + Derslik 108: Tüketici Davranışları [İşletme Tezli] - Prof. Dr. G. Nazan GÜNAY
+Derslik 201 + Derslik 202: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 105: Introduction to Microeconomics [1. Sınıf] - ÖĞRETMEN 3
+Derslik 108 + Derslik 103: Örgüt Sosyolojisi [İşletme Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 101 + Derslik 208: System Analysis and Design [4. Sınıf] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 204 + Derslik 209: Borçlar Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 211: Vestel İşletmecilik Seminerleri I [4. Sınıf] - Prof. Dr. G. Nazan GÜNAY
+Derslik 204 + Derslik 201: Stok Yönetimi [İşletme Tezli] - Doç. Dr. Aydın KOÇAK
+Derslik 202 + Derslik 109: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 203: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] - Prof. Dr. Türker SUSMUŞ
+Derslik 105 + Derslik 208: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] - ÖĞRETMEN 5
+Derslik 202 + Derslik 104: Organizational Behavior (Çift) [2. Sınıf] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 201 + Derslik 210: Human Resources Management [4. Sınıf] - Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 209: Örgütsel Davranış [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 109 + Derslik 203: Hizmet Pazarlaması [İşletme Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 210 + Derslik 108: Pazarlamada Güncel Konular [Pazarlama Tezli] - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 104 + Derslik 103: Yönetim Muhasebesi [2. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 303 + Derslik 205: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Burak ÇAPRAZ
+Derslik 209 + Derslik 109: Operations Research I [3. Sınıf] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 209: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 105 + Derslik 203: Sürdürülebilir Pazarlama [3. Sınıf] - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 303 + Derslik 111: Pazarlamada Güncel Konular [İşletme Tezli] - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 210: İşletme Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 105 + Derslik 104: Pazarlama Yönetimi [Pazarlama Tezli] - Prof. Dr. Aykan CANDEMİR
+Derslik 303 + Derslik 111: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 210: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 110 + Derslik 204: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
+Derslik 202 + Derslik 205: Üretim Çizelgeleme [İşletme Tezli] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 209: Enformetri [3. Sınıf] - Doç. Dr. Haydar YALÇIN
+Derslik 205 + Derslik 103: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] - Doç. Dr. Sema AYDIN
+Derslik 104 + Derslik 210: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 101: Muhasebe I [2. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 105 + Derslik 303: Consumer Behavior (Çift) [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 208 + Derslik 109: Yönetimde Güncel Yaklaşımlar [İşletme Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 111 + Derslik 204: Retailing I [4. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 110: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 209 + Derslik 109: Reklamcılık Yönetimi [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 111 + Derslik 210: Yönetimde Güncel Yaklaşımlar [Yönetim Bilimi ve Organizasyon Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 103 + Derslik 202: Matematik-I (Tek) [1. Sınıf] - ÖĞRETMEN 1</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 103: Introduction to Business (Örgün + İ.Ö) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
+Derslik 204 + Derslik 211: Örgüt Sosyolojisi [Yönetim Bilimi ve Organizasyon Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 210 + Derslik 111: Araştırma Yöntemleri (Tek) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 203: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] - Doç. Dr. Aydın KOÇAK
+Derslik 303 + Derslik 209: İstatistik I [2. Sınıf] - Doç. Dr. İnanç KABASAKAL
+Derslik 108 + Derslik 111: Business [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 109: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 209 + Derslik 205: Tedarik Zinciri Yönetimi ve Lojistik [Üretim Yönetimi Tezli] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 105 + Derslik 110: Endüstriyel Pazarlama [İşletme Tezli] - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 205: Hizmet Pazarlaması [Pazarlama Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 108 + Derslik 203: Financial Management I [3. Sınıf] - Prof. Dr. Dilek DEMİRHAN
+Derslik 109 + Derslik 110: Muhasebe II (Tasfiye) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 203: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 105 + Derslik 104: Tüketici Davranışları [Pazarlama Tezli] - Prof. Dr. G. Nazan GÜNAY
+Derslik 109 + Derslik 103: Uygulamalı Finansal Piyasa İşlemleri (Örgün) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 101: E-Pazarlama [İşletme Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 110 + Derslik 201: Consumer Behavior (Tek) [3. Sınıf] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 109 + Derslik 104: Global Marketing (Çift) [4. Sınıf] - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 210: Global Marketing (Tek) [4. Sınıf] - Prof. Dr. Aykan CANDEMİR
+Derslik 104 + Derslik 202: Management Consultancy [3. Sınıf] - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 102: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
+Derslik 208 + Derslik 209: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 105 + Derslik 111: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. İnanç KABASAKAL
+Derslik 202 + Derslik 104: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 303 + Derslik 110: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 110: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
+Derslik 205 + Derslik 203: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
+Derslik 105 + Derslik 303: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 202 + Derslik 102: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 104 + Derslik 201: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
+Derslik 210 + Derslik 108: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 303 + Derslik 101: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] - Doç. Dr. Haydar YALÇIN
+Derslik 103 + Derslik 111: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 208: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
+Derslik 108 + Derslik 109: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
+Derslik 201 + Derslik 204: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 102 + Derslik 203: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 210 + Derslik 209: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 103: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Haluk SOYUER
+Derslik 203 + Derslik 209: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 110 + Derslik 201: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Doç. Dr. Sema AYDIN
+Derslik 211 + Derslik 104: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 103: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 111 + Derslik 211: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
+Derslik 101 + Derslik 209: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Keti VENTURA
+Derslik 201 + Derslik 110: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 104: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 203 + Derslik 211: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
+Derslik 105 + Derslik 202: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 101 + Derslik 303: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 105: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Aykan CANDEMİR
+Derslik 203 + Derslik 108: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 303 + Derslik 103: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Derya İLİC
+Derslik 202 + Derslik 204: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 103 + Derslik 204: Hizmet Pazarlaması [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Aykan CANDEMİR
+Derslik 211 + Derslik 303: Örgütler ve Yönetim [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Derya İLİC
+Derslik 202 + Derslik 111: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
+Derslik 201 + Derslik 203: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 108 + Derslik 210: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 303: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
+Derslik 111 + Derslik 103: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 110 + Derslik 209: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
+Derslik 211 + Derslik 109: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ</t>
   </si>
 </sst>
 </file>

--- a/isletme_sinav_takvimi.xlsx
+++ b/isletme_sinav_takvimi.xlsx
@@ -55,224 +55,203 @@
     <t>Cuma</t>
   </si>
   <si>
-    <t>Derslik 204 + Derslik 209: Sosyoloji [1. Sınıf] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 201 + Derslik 110: Teknoloji Yönetiminin Esasları [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
-Derslik 205 + Derslik 105: Ticaret Hukuku (Tasfiye) [0. Sınıf] - Doç. Dr. Sema AYDIN
-Derslik 102 + Derslik 203: Mali Tablolar Analizi [3. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 202: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Haluk SOYUER
-Derslik 101 + Derslik 205: Yatırım Yönetimi [3. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 209 + Derslik 201: Üretim ve İşlemler Yönetimi [İşletme Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 104 + Derslik 204: Pazarlama Kuramı [İşletme Doktora] - Prof. Dr. G. Nazan GÜNAY
-Derslik 203 + Derslik 201: Stok Yönetimi [Üretim Yönetimi Tezli] - Doç. Dr. Aydın KOÇAK
-Derslik 110 + Derslik 101: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 103 + Derslik 209: Dijital Dönüşümün Yönetimi [İşletme Tezli] - Doç. Dr. Haydar YALÇIN</t>
-  </si>
-  <si>
-    <t>Derslik 103 + Derslik 105: Business I (Tasfiye) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
-Derslik 102 + Derslik 202: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 104 + Derslik 205: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 204 + Derslik 109: Matematik-I (Çift) [1. Sınıf] - ÖĞRETMEN 2</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 210: İşletmeye Giriş [0. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 111 + Derslik 109: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. Aydın KOÇAK
-Derslik 104 + Derslik 203: Bilgi Yönetimi [3. Sınıf] - Doç. Dr. İnanç KABASAKAL</t>
-  </si>
-  <si>
-    <t>Derslik 110 + Derslik 201: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] - Prof. Dr. Burak ÇAPRAZ
-Derslik 111 + Derslik 210: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 303 + Derslik 103: Üretim Çizelgeleme [Üretim Yönetimi Tezli] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 104: E-Pazarlama [Pazarlama Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 209 + Derslik 204: Operations Management I [2. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 101 + Derslik 103: Muhasebe I (Örgün + İ.Ö.) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 111 + Derslik 204: Organizational Behavior (Tek) [2. Sınıf] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 101 + Derslik 108: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 103 + Derslik 109: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 102: Örgütsel Davranış [İşletme Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 111 + Derslik 103: Endüstriyel Pazarlama [Pazarlama Tezli] - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 105 + Derslik 204: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 110: Kariyer Planlama [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 111 + Derslik 105: Pazarlama Yönetimi [İşletme Tezli] - Prof. Dr. Aykan CANDEMİR
-Derslik 204 + Derslik 208: Yönetim Geliştirme [3. Sınıf] - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 103: Marketing Management I [2. Sınıf] - Prof. Dr. G. Nazan GÜNAY
-Derslik 211 + Derslik 101: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
-Derslik 108 + Derslik 203: Araştırma Yöntemleri (Çift) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 202 + Derslik 303: Türk Dili I [1. Sınıf] - ÖĞRETMEN 4</t>
-  </si>
-  <si>
-    <t>Derslik 111 + Derslik 104: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] - Prof. Dr. Haluk SOYUER
-Derslik 303 + Derslik 108: Tüketici Davranışları [İşletme Tezli] - Prof. Dr. G. Nazan GÜNAY
-Derslik 201 + Derslik 202: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 105: Introduction to Microeconomics [1. Sınıf] - ÖĞRETMEN 3
-Derslik 108 + Derslik 103: Örgüt Sosyolojisi [İşletme Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 101 + Derslik 208: System Analysis and Design [4. Sınıf] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 204 + Derslik 209: Borçlar Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 211: Vestel İşletmecilik Seminerleri I [4. Sınıf] - Prof. Dr. G. Nazan GÜNAY
-Derslik 204 + Derslik 201: Stok Yönetimi [İşletme Tezli] - Doç. Dr. Aydın KOÇAK
-Derslik 202 + Derslik 109: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 203: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] - Prof. Dr. Türker SUSMUŞ
-Derslik 105 + Derslik 208: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] - ÖĞRETMEN 5
-Derslik 202 + Derslik 104: Organizational Behavior (Çift) [2. Sınıf] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 201 + Derslik 210: Human Resources Management [4. Sınıf] - Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 209: Örgütsel Davranış [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 109 + Derslik 203: Hizmet Pazarlaması [İşletme Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 210 + Derslik 108: Pazarlamada Güncel Konular [Pazarlama Tezli] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 104 + Derslik 103: Yönetim Muhasebesi [2. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 303 + Derslik 205: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Burak ÇAPRAZ
-Derslik 209 + Derslik 109: Operations Research I [3. Sınıf] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 209: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 105 + Derslik 203: Sürdürülebilir Pazarlama [3. Sınıf] - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 303 + Derslik 111: Pazarlamada Güncel Konular [İşletme Tezli] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 210: İşletme Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 105 + Derslik 104: Pazarlama Yönetimi [Pazarlama Tezli] - Prof. Dr. Aykan CANDEMİR
-Derslik 303 + Derslik 111: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 210: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 110 + Derslik 204: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
-Derslik 202 + Derslik 205: Üretim Çizelgeleme [İşletme Tezli] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 209: Enformetri [3. Sınıf] - Doç. Dr. Haydar YALÇIN
-Derslik 205 + Derslik 103: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] - Doç. Dr. Sema AYDIN
-Derslik 104 + Derslik 210: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 101: Muhasebe I [2. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 105 + Derslik 303: Consumer Behavior (Çift) [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 208 + Derslik 109: Yönetimde Güncel Yaklaşımlar [İşletme Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 111 + Derslik 204: Retailing I [4. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 110: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 209 + Derslik 109: Reklamcılık Yönetimi [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 111 + Derslik 210: Yönetimde Güncel Yaklaşımlar [Yönetim Bilimi ve Organizasyon Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 103 + Derslik 202: Matematik-I (Tek) [1. Sınıf] - ÖĞRETMEN 1</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 103: Introduction to Business (Örgün + İ.Ö) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
-Derslik 204 + Derslik 211: Örgüt Sosyolojisi [Yönetim Bilimi ve Organizasyon Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 210 + Derslik 111: Araştırma Yöntemleri (Tek) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 203: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] - Doç. Dr. Aydın KOÇAK
-Derslik 303 + Derslik 209: İstatistik I [2. Sınıf] - Doç. Dr. İnanç KABASAKAL
-Derslik 108 + Derslik 111: Business [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 109: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 209 + Derslik 205: Tedarik Zinciri Yönetimi ve Lojistik [Üretim Yönetimi Tezli] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 105 + Derslik 110: Endüstriyel Pazarlama [İşletme Tezli] - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 205: Hizmet Pazarlaması [Pazarlama Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 108 + Derslik 203: Financial Management I [3. Sınıf] - Prof. Dr. Dilek DEMİRHAN
-Derslik 109 + Derslik 110: Muhasebe II (Tasfiye) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 203: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 105 + Derslik 104: Tüketici Davranışları [Pazarlama Tezli] - Prof. Dr. G. Nazan GÜNAY
-Derslik 109 + Derslik 103: Uygulamalı Finansal Piyasa İşlemleri (Örgün) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 101: E-Pazarlama [İşletme Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 110 + Derslik 201: Consumer Behavior (Tek) [3. Sınıf] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 109 + Derslik 104: Global Marketing (Çift) [4. Sınıf] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 210: Global Marketing (Tek) [4. Sınıf] - Prof. Dr. Aykan CANDEMİR
-Derslik 104 + Derslik 202: Management Consultancy [3. Sınıf] - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 102: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
-Derslik 208 + Derslik 209: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 105 + Derslik 111: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. İnanç KABASAKAL
-Derslik 202 + Derslik 104: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 303 + Derslik 110: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 110: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
-Derslik 205 + Derslik 203: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 105 + Derslik 303: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 202 + Derslik 102: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 104 + Derslik 201: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
-Derslik 210 + Derslik 108: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 303 + Derslik 101: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] - Doç. Dr. Haydar YALÇIN
-Derslik 103 + Derslik 111: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 208: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 108 + Derslik 109: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
-Derslik 201 + Derslik 204: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 102 + Derslik 203: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 210 + Derslik 209: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 103: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 203 + Derslik 209: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 110 + Derslik 201: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Doç. Dr. Sema AYDIN
-Derslik 211 + Derslik 104: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 103: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 111 + Derslik 211: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
-Derslik 101 + Derslik 209: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Keti VENTURA
-Derslik 201 + Derslik 110: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 104: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 203 + Derslik 211: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
-Derslik 105 + Derslik 202: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 101 + Derslik 303: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 105: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Aykan CANDEMİR
-Derslik 203 + Derslik 108: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 303 + Derslik 103: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Derya İLİC
-Derslik 202 + Derslik 204: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 103 + Derslik 204: Hizmet Pazarlaması [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Aykan CANDEMİR
-Derslik 211 + Derslik 303: Örgütler ve Yönetim [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Derya İLİC
-Derslik 202 + Derslik 111: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
-Derslik 201 + Derslik 203: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 108 + Derslik 210: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 303: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
-Derslik 111 + Derslik 103: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 110 + Derslik 209: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
-Derslik 211 + Derslik 109: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ</t>
+    <t>Derslik 108 + Derslik 303: Örgüt Sosyolojisi [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 109 + Derslik 202: Teknoloji Yönetiminin Esasları [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN
+Derslik 205 + Derslik 104: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 104 + Derslik 202: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 201 + Derslik 203: Reklamcılık Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 102 + Derslik 210: E-Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 104: Pazarlama Kuramı [İşletme Doktora] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 103 + Derslik 110: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
+Derslik 303 + Derslik 108: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 201: Muhasebe I [2. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
+Derslik 211 + Derslik 208: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 111 + Derslik 303: Araştırma Yöntemleri (Çift) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 209: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] "Zorunlu" - Doç. Dr. Aydın KOÇAK
+Derslik 211 + Derslik 103: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 110 + Derslik 101: Kariyer Planlama [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 208: Mali Tablolar Analizi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 205 + Derslik 209: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 203: Operations Management I [2. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
+Derslik 210 + Derslik 111: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 201: Borçlar Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 210 + Derslik 103: Financial Management I [3. Sınıf] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN
+Derslik 111 + Derslik 303: Endüstriyel Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 108: Management Consultancy [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC
+Derslik 205 + Derslik 102: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 202 + Derslik 201: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 110 + Derslik 209: Global Marketing (Tek) [4. Sınıf] "Zorunlu" - Prof. Dr. Aykan CANDEMİR
+Derslik 201 + Derslik 210: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 110 + Derslik 109: Marketing Management I [2. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 108 + Derslik 102: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 303 + Derslik 205: Araştırma Yöntemleri (Tek) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 103 + Derslik 209: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 101 + Derslik 303: Tüketici Davranışları [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 205 + Derslik 202: Dijital Dönüşümün Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 202: Introduction to Microeconomics [1. Sınıf] "Zorunlu" - ÖĞRETMEN 3
+Derslik 208 + Derslik 108: Stok Yönetimi [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Doç. Dr. Aydın KOÇAK
+Derslik 201 + Derslik 204: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 203: Vestel İşletmecilik Seminerleri I [4. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 209 + Derslik 201: Üretim ve İşlemler Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 105 + Derslik 204: Business [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 108: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] "Zorunlu" - Prof. Dr. Türker SUSMUŞ
+Derslik 203 + Derslik 209: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] "Zorunlu" - ÖĞRETMEN 5
+Derslik 105 + Derslik 111: Yönetimde Güncel Yaklaşımlar [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 203: Hizmet Pazarlaması [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 105 + Derslik 104: Global Marketing (Çift) [4. Sınıf] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 202: Örgütsel Davranış [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 211 + Derslik 205: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 210 + Derslik 104: Üretim Çizelgeleme [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 211: Organizational Behavior (Tek) [2. Sınıf] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 105 + Derslik 110: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 203: Yönetim Muhasebesi [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 109 + Derslik 202: Consumer Behavior (Tek) [3. Sınıf] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 104 + Derslik 209: Pazarlamada Güncel Konular [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 111 + Derslik 202: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
+Derslik 209 + Derslik 210: Operations Research I [3. Sınıf] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 209: Enformetri [3. Sınıf] "Zorunlu" - Doç. Dr. Haydar YALÇIN
+Derslik 102 + Derslik 110: Organizational Behavior (Çift) [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 205 + Derslik 208: Matematik-I (Tek) [1. Sınıf] "Zorunlu" - ÖĞRETMEN 1</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 104: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. Aydın KOÇAK
+Derslik 203 + Derslik 103: Bilgi Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
+Derslik 205 + Derslik 111: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 208: Sosyoloji [1. Sınıf] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 111 + Derslik 105: System Analysis and Design [4. Sınıf] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 111: Yatırım Yönetimi [3. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
+Derslik 201 + Derslik 102: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] "Zorunlu" - Doç. Dr. Sema AYDIN
+Derslik 103 + Derslik 110: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 103 + Derslik 105: Consumer Behavior (Çift) [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 101 + Derslik 204: İstatistik I [2. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
+Derslik 201 + Derslik 111: Retailing I [4. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 103 + Derslik 209: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 101 + Derslik 110: Sürdürülebilir Pazarlama [3. Sınıf] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 210: Matematik-I (Çift) [1. Sınıf] "Zorunlu" - ÖĞRETMEN 2
+Derslik 110 + Derslik 111: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 202: İşletme Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 210 + Derslik 109: Pazarlama Yönetimi [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 204: Human Resources Management [4. Sınıf] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
+Derslik 211 + Derslik 208: Yönetim Geliştirme [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 110 + Derslik 201: Türk Dili I [1. Sınıf] "Zorunlu" - ÖĞRETMEN 4
+Derslik 102 + Derslik 202: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 104: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 110 + Derslik 208: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 201 + Derslik 103: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
+Derslik 205 + Derslik 109: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 210: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 110 + Derslik 104: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 203 + Derslik 209: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Haydar YALÇIN
+Derslik 102 + Derslik 201: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 211 + Derslik 205: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 102: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
+Derslik 208 + Derslik 201: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK
+Derslik 211 + Derslik 210: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Sema AYDIN
+Derslik 204 + Derslik 103: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 210: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 108 + Derslik 211: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 209 + Derslik 109: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 102 + Derslik 111: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 108: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 203 + Derslik 111: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK
+Derslik 102 + Derslik 103: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 204 + Derslik 211: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
+  </si>
+  <si>
+    <t>Derslik 104 + Derslik 210: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 109 + Derslik 102: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 103 + Derslik 201: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
+Derslik 205 + Derslik 211: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 303: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Derya İLİC
+Derslik 208 + Derslik 101: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN
+Derslik 203 + Derslik 108: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ
+Derslik 111 + Derslik 202: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 109: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
+Derslik 210 + Derslik 205: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
+Derslik 111 + Derslik 104: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN
+Derslik 105 + Derslik 303: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 104 + Derslik 208: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 203 + Derslik 202: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 211 + Derslik 209: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA
+Derslik 108 + Derslik 109: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 111: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
+Derslik 203 + Derslik 201: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
+Derslik 101 + Derslik 204: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ
+Derslik 210 + Derslik 211: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
   </si>
 </sst>
 </file>

--- a/isletme_sinav_takvimi.xlsx
+++ b/isletme_sinav_takvimi.xlsx
@@ -55,203 +55,203 @@
     <t>Cuma</t>
   </si>
   <si>
-    <t>Derslik 108 + Derslik 303: Örgüt Sosyolojisi [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 109 + Derslik 202: Teknoloji Yönetiminin Esasları [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN
-Derslik 205 + Derslik 104: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 104 + Derslik 202: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Haluk SOYUER
-Derslik 201 + Derslik 203: Reklamcılık Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 102 + Derslik 210: E-Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 104: Pazarlama Kuramı [İşletme Doktora] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
-Derslik 103 + Derslik 110: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
-Derslik 303 + Derslik 108: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 201: Muhasebe I [2. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
-Derslik 211 + Derslik 208: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 111 + Derslik 303: Araştırma Yöntemleri (Çift) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 209: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] "Zorunlu" - Doç. Dr. Aydın KOÇAK
-Derslik 211 + Derslik 103: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 110 + Derslik 101: Kariyer Planlama [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 208: Mali Tablolar Analizi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 205 + Derslik 209: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 203: Operations Management I [2. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
-Derslik 210 + Derslik 111: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 201: Borçlar Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 210 + Derslik 103: Financial Management I [3. Sınıf] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN
-Derslik 111 + Derslik 303: Endüstriyel Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 108: Management Consultancy [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC
-Derslik 205 + Derslik 102: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER
-Derslik 202 + Derslik 201: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 110 + Derslik 209: Global Marketing (Tek) [4. Sınıf] "Zorunlu" - Prof. Dr. Aykan CANDEMİR
-Derslik 201 + Derslik 210: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 110 + Derslik 109: Marketing Management I [2. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
-Derslik 108 + Derslik 102: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER
-Derslik 303 + Derslik 205: Araştırma Yöntemleri (Tek) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 103 + Derslik 209: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] "Zorunlu" - Prof. Dr. Haluk SOYUER
-Derslik 101 + Derslik 303: Tüketici Davranışları [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
-Derslik 205 + Derslik 202: Dijital Dönüşümün Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 202: Introduction to Microeconomics [1. Sınıf] "Zorunlu" - ÖĞRETMEN 3
-Derslik 208 + Derslik 108: Stok Yönetimi [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Doç. Dr. Aydın KOÇAK
-Derslik 201 + Derslik 204: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 203: Vestel İşletmecilik Seminerleri I [4. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
-Derslik 209 + Derslik 201: Üretim ve İşlemler Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 105 + Derslik 204: Business [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 108: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] "Zorunlu" - Prof. Dr. Türker SUSMUŞ
-Derslik 203 + Derslik 209: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] "Zorunlu" - ÖĞRETMEN 5
-Derslik 105 + Derslik 111: Yönetimde Güncel Yaklaşımlar [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 203: Hizmet Pazarlaması [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 105 + Derslik 104: Global Marketing (Çift) [4. Sınıf] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 202: Örgütsel Davranış [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 211 + Derslik 205: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 210 + Derslik 104: Üretim Çizelgeleme [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 211: Organizational Behavior (Tek) [2. Sınıf] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 105 + Derslik 110: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 203: Yönetim Muhasebesi [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 109 + Derslik 202: Consumer Behavior (Tek) [3. Sınıf] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 104 + Derslik 209: Pazarlamada Güncel Konular [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 111 + Derslik 202: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
-Derslik 209 + Derslik 210: Operations Research I [3. Sınıf] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 209: Enformetri [3. Sınıf] "Zorunlu" - Doç. Dr. Haydar YALÇIN
-Derslik 102 + Derslik 110: Organizational Behavior (Çift) [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 205 + Derslik 208: Matematik-I (Tek) [1. Sınıf] "Zorunlu" - ÖĞRETMEN 1</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 104: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. Aydın KOÇAK
-Derslik 203 + Derslik 103: Bilgi Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
-Derslik 205 + Derslik 111: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 208: Sosyoloji [1. Sınıf] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 111 + Derslik 105: System Analysis and Design [4. Sınıf] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 111: Yatırım Yönetimi [3. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
-Derslik 201 + Derslik 102: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] "Zorunlu" - Doç. Dr. Sema AYDIN
-Derslik 103 + Derslik 110: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 103 + Derslik 105: Consumer Behavior (Çift) [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 101 + Derslik 204: İstatistik I [2. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
-Derslik 201 + Derslik 111: Retailing I [4. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 103 + Derslik 209: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 101 + Derslik 110: Sürdürülebilir Pazarlama [3. Sınıf] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 210: Matematik-I (Çift) [1. Sınıf] "Zorunlu" - ÖĞRETMEN 2
-Derslik 110 + Derslik 111: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 202: İşletme Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 210 + Derslik 109: Pazarlama Yönetimi [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 204: Human Resources Management [4. Sınıf] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
-Derslik 211 + Derslik 208: Yönetim Geliştirme [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 110 + Derslik 201: Türk Dili I [1. Sınıf] "Zorunlu" - ÖĞRETMEN 4
-Derslik 102 + Derslik 202: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 104: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
-Derslik 110 + Derslik 208: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 201 + Derslik 103: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
-Derslik 205 + Derslik 109: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 210: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
-Derslik 110 + Derslik 104: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
-Derslik 203 + Derslik 209: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Haydar YALÇIN
-Derslik 102 + Derslik 201: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 211 + Derslik 205: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 102: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
-Derslik 208 + Derslik 201: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK
-Derslik 211 + Derslik 210: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Sema AYDIN
-Derslik 204 + Derslik 103: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 210: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
-Derslik 108 + Derslik 211: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 209 + Derslik 109: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 102 + Derslik 111: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 108: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
-Derslik 203 + Derslik 111: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK
-Derslik 102 + Derslik 103: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 204 + Derslik 211: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
-  </si>
-  <si>
-    <t>Derslik 104 + Derslik 210: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 109 + Derslik 102: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 103 + Derslik 201: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
-Derslik 205 + Derslik 211: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 303: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Derya İLİC
-Derslik 208 + Derslik 101: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN
-Derslik 203 + Derslik 108: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ
-Derslik 111 + Derslik 202: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 109: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
-Derslik 210 + Derslik 205: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
-Derslik 111 + Derslik 104: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN
-Derslik 105 + Derslik 303: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 104 + Derslik 208: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 203 + Derslik 202: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 211 + Derslik 209: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA
-Derslik 108 + Derslik 109: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 111: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
-Derslik 203 + Derslik 201: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
-Derslik 101 + Derslik 204: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ
-Derslik 210 + Derslik 211: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
+    <t>Derslik 202 + Derslik 211: Örgüt Sosyolojisi [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 201 + Derslik 104: Dijital Dönüşümün Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN
+Derslik 109 + Derslik 205: Araştırma Yöntemleri (Tek) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 202: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 110 + Derslik 204: Teknoloji Yönetiminin Esasları [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN
+Derslik 101 + Derslik 109: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 102: Pazarlama Kuramı [İşletme Doktora] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 211 + Derslik 104: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
+Derslik 209 + Derslik 105: Reklamcılık Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 211: Yatırım Yönetimi [3. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
+Derslik 210 + Derslik 109: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 103 + Derslik 204: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 111 + Derslik 104: Stok Yönetimi [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Doç. Dr. Aydın KOÇAK
+Derslik 105 + Derslik 202: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] "Zorunlu" - Doç. Dr. Sema AYDIN
+Derslik 109 + Derslik 203: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 204: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
+Derslik 209 + Derslik 201: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
+Derslik 101 + Derslik 108: Pazarlamada Güncel Konular [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 103 + Derslik 110: Borçlar Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 205 + Derslik 102: E-Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 202: Kariyer Planlama [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 201 + Derslik 205: Türk Dili I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 4
+Derslik 108 + Derslik 101: Operations Research I [3. Sınıf] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 205: Organizational Behavior (Tek) [2. Sınıf] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 109 + Derslik 209: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 303: Management Consultancy [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC
+Derslik 205 + Derslik 111: Financial Management I [3. Sınıf] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 111: Marketing Management I [2. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 210 + Derslik 105: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 203 + Derslik 201: Üretim ve İşlemler Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 204: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 208 + Derslik 102: Tüketici Davranışları [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 210 + Derslik 201: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 210: Introduction to Microeconomics [1. Sınıf] "Seçmeli" - ÖĞRETMEN 3
+Derslik 111 + Derslik 102: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. Aydın KOÇAK
+Derslik 205 + Derslik 208: İşletme Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
+  </si>
+  <si>
+    <t>Derslik 111 + Derslik 108: Vestel İşletmecilik Seminerleri I [4. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 303 + Derslik 203: Bilgi Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
+Derslik 110 + Derslik 201: Yönetim Muhasebesi [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 209: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] "Zorunlu" - Prof. Dr. Türker SUSMUŞ
+Derslik 104 + Derslik 211: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 5
+Derslik 204 + Derslik 101: Global Marketing (Tek) [4. Sınıf] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 111: Yönetimde Güncel Yaklaşımlar [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 201 + Derslik 102: Mali Tablolar Analizi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 101 + Derslik 204: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 104 + Derslik 303: Örgütsel Davranış [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 110 + Derslik 205: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 201: Matematik-I (Çift) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 2
+Derslik 210 + Derslik 209: Sürdürülebilir Pazarlama [3. Sınıf] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 110: Pazarlama Yönetimi [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Aykan CANDEMİR
+Derslik 211 + Derslik 209: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 202: Operations Management I [2. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
+Derslik 204 + Derslik 111: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 211 + Derslik 201: Üretim Çizelgeleme [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 111 + Derslik 105: Sosyoloji [1. Sınıf] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 109 + Derslik 209: İstatistik I [2. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
+Derslik 211 + Derslik 104: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 201: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 209 + Derslik 205: Enformetri [3. Sınıf] "Zorunlu" - Doç. Dr. Haydar YALÇIN
+Derslik 208 + Derslik 202: Retailing I [4. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 103: Consumer Behavior (Çift) [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 108 + Derslik 210: Organizational Behavior (Çift) [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 203 + Derslik 202: Business [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 205: Muhasebe I [2. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
+Derslik 111 + Derslik 108: System Analysis and Design [4. Sınıf] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 202 + Derslik 303: Araştırma Yöntemleri (Çift) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 104: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] "Zorunlu" - Doç. Dr. Aydın KOÇAK
+Derslik 204 + Derslik 102: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 209: Hizmet Pazarlaması [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 303 + Derslik 203: Global Marketing (Çift) [4. Sınıf] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 209: Consumer Behavior (Tek) [3. Sınıf] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 303 + Derslik 101: Endüstriyel Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 103: Matematik-I (Tek) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 1
+Derslik 210 + Derslik 205: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 110: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 111 + Derslik 202: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 103: Human Resources Management [4. Sınıf] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
+Derslik 208 + Derslik 202: Yönetim Geliştirme [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 208: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 303 + Derslik 109: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 101 + Derslik 111: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 110 + Derslik 201: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Derslik 103 + Derslik 203: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 102 + Derslik 108: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 205 + Derslik 303: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 204 + Derslik 208: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 111: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
+Derslik 109 + Derslik 204: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK
+Derslik 108 + Derslik 103: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 104 + Derslik 303: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 101 + Derslik 201: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 303: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 210 + Derslik 108: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK
+Derslik 105 + Derslik 202: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 111 + Derslik 209: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 105: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 204 + Derslik 201: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Haydar YALÇIN
+Derslik 110 + Derslik 109: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
+Derslik 111 + Derslik 208: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Sema AYDIN</t>
+  </si>
+  <si>
+    <t>Derslik 111 + Derslik 108: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
+Derslik 202 + Derslik 104: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
+Derslik 209 + Derslik 101: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN
+Derslik 105 + Derslik 102: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 303: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 111 + Derslik 109: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
+Derslik 202 + Derslik 101: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN
+Derslik 102 + Derslik 110: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 203: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
+Derslik 108 + Derslik 303: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 103 + Derslik 210: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA
+Derslik 111 + Derslik 105: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 202: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 204 + Derslik 210: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 104 + Derslik 108: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Derya İLİC
+Derslik 102 + Derslik 101: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 111: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Aykan CANDEMİR
+Derslik 210 + Derslik 101: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
+Derslik 303 + Derslik 203: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ
+Derslik 105 + Derslik 109: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
   </si>
 </sst>
 </file>

--- a/isletme_sinav_takvimi.xlsx
+++ b/isletme_sinav_takvimi.xlsx
@@ -55,203 +55,203 @@
     <t>Cuma</t>
   </si>
   <si>
-    <t>Derslik 202 + Derslik 211: Örgüt Sosyolojisi [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 201 + Derslik 104: Dijital Dönüşümün Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN
-Derslik 109 + Derslik 205: Araştırma Yöntemleri (Tek) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 202: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Haluk SOYUER
-Derslik 110 + Derslik 204: Teknoloji Yönetiminin Esasları [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN
-Derslik 101 + Derslik 109: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 102: Pazarlama Kuramı [İşletme Doktora] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
-Derslik 211 + Derslik 104: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
-Derslik 209 + Derslik 105: Reklamcılık Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 211: Yatırım Yönetimi [3. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
-Derslik 210 + Derslik 109: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 103 + Derslik 204: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 111 + Derslik 104: Stok Yönetimi [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Doç. Dr. Aydın KOÇAK
-Derslik 105 + Derslik 202: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] "Zorunlu" - Doç. Dr. Sema AYDIN
-Derslik 109 + Derslik 203: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 204: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
-Derslik 209 + Derslik 201: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
-Derslik 101 + Derslik 108: Pazarlamada Güncel Konular [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 103 + Derslik 110: Borçlar Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 205 + Derslik 102: E-Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 202: Kariyer Planlama [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 201 + Derslik 205: Türk Dili I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 4
-Derslik 108 + Derslik 101: Operations Research I [3. Sınıf] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 205: Organizational Behavior (Tek) [2. Sınıf] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 109 + Derslik 209: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 303: Management Consultancy [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC
-Derslik 205 + Derslik 111: Financial Management I [3. Sınıf] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 111: Marketing Management I [2. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
-Derslik 210 + Derslik 105: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER
-Derslik 203 + Derslik 201: Üretim ve İşlemler Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 204: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] "Zorunlu" - Prof. Dr. Haluk SOYUER
-Derslik 208 + Derslik 102: Tüketici Davranışları [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
-Derslik 210 + Derslik 201: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 210: Introduction to Microeconomics [1. Sınıf] "Seçmeli" - ÖĞRETMEN 3
-Derslik 111 + Derslik 102: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. Aydın KOÇAK
-Derslik 205 + Derslik 208: İşletme Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
-  </si>
-  <si>
-    <t>Derslik 111 + Derslik 108: Vestel İşletmecilik Seminerleri I [4. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
-Derslik 303 + Derslik 203: Bilgi Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
-Derslik 110 + Derslik 201: Yönetim Muhasebesi [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 209: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] "Zorunlu" - Prof. Dr. Türker SUSMUŞ
-Derslik 104 + Derslik 211: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 5
-Derslik 204 + Derslik 101: Global Marketing (Tek) [4. Sınıf] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 111: Yönetimde Güncel Yaklaşımlar [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 201 + Derslik 102: Mali Tablolar Analizi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 101 + Derslik 204: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 104 + Derslik 303: Örgütsel Davranış [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 110 + Derslik 205: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 201: Matematik-I (Çift) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 2
-Derslik 210 + Derslik 209: Sürdürülebilir Pazarlama [3. Sınıf] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 110: Pazarlama Yönetimi [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Aykan CANDEMİR
-Derslik 211 + Derslik 209: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 202: Operations Management I [2. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
-Derslik 204 + Derslik 111: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER
-Derslik 211 + Derslik 201: Üretim Çizelgeleme [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 111 + Derslik 105: Sosyoloji [1. Sınıf] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 109 + Derslik 209: İstatistik I [2. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
-Derslik 211 + Derslik 104: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 201: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 209 + Derslik 205: Enformetri [3. Sınıf] "Zorunlu" - Doç. Dr. Haydar YALÇIN
-Derslik 208 + Derslik 202: Retailing I [4. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 103: Consumer Behavior (Çift) [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 108 + Derslik 210: Organizational Behavior (Çift) [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 203 + Derslik 202: Business [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 205: Muhasebe I [2. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
-Derslik 111 + Derslik 108: System Analysis and Design [4. Sınıf] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 202 + Derslik 303: Araştırma Yöntemleri (Çift) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 104: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] "Zorunlu" - Doç. Dr. Aydın KOÇAK
-Derslik 204 + Derslik 102: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 209: Hizmet Pazarlaması [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 303 + Derslik 203: Global Marketing (Çift) [4. Sınıf] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 209: Consumer Behavior (Tek) [3. Sınıf] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 303 + Derslik 101: Endüstriyel Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 103: Matematik-I (Tek) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 1
-Derslik 210 + Derslik 205: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 110: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 111 + Derslik 202: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+    <t>Derslik 201 + Derslik 108: Muhasebe I [2. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
+Derslik 204 + Derslik 109: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 110 + Derslik 208: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 209: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 208 + Derslik 109: Enformetri [3. Sınıf] "Zorunlu" - Doç. Dr. Haydar YALÇIN
+Derslik 105 + Derslik 104: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 208: Pazarlama Kuramı [İşletme Doktora] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 110 + Derslik 211: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
+Derslik 104 + Derslik 204: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 111: Stok Yönetimi [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Doç. Dr. Aydın KOÇAK
+Derslik 101 + Derslik 209: Örgüt Sosyolojisi [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 201 + Derslik 211: Üretim ve İşlemler Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 109: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. Aydın KOÇAK
+Derslik 208 + Derslik 203: Reklamcılık Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 202 + Derslik 209: Kariyer Planlama [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 110: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
+Derslik 210 + Derslik 204: Pazarlamada Güncel Konular [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
   </si>
   <si>
     <t>Derslik 101 + Derslik 103: Human Resources Management [4. Sınıf] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
-Derslik 208 + Derslik 202: Yönetim Geliştirme [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 208: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
-Derslik 303 + Derslik 109: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 101 + Derslik 111: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 110 + Derslik 201: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
-    <t>Derslik 103 + Derslik 203: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
-Derslik 102 + Derslik 108: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
-Derslik 205 + Derslik 303: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 204 + Derslik 208: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 111: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
-Derslik 109 + Derslik 204: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK
-Derslik 108 + Derslik 103: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 104 + Derslik 303: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 101 + Derslik 201: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 303: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
-Derslik 210 + Derslik 108: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK
-Derslik 105 + Derslik 202: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 111 + Derslik 209: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 105: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
-Derslik 204 + Derslik 201: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Haydar YALÇIN
-Derslik 110 + Derslik 109: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
-Derslik 111 + Derslik 208: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Sema AYDIN</t>
-  </si>
-  <si>
-    <t>Derslik 111 + Derslik 108: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
-Derslik 202 + Derslik 104: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
-Derslik 209 + Derslik 101: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN
-Derslik 105 + Derslik 102: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 303: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 111 + Derslik 109: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
-Derslik 202 + Derslik 101: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN
-Derslik 102 + Derslik 110: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 203: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
-Derslik 108 + Derslik 303: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 103 + Derslik 210: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA
-Derslik 111 + Derslik 105: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 202: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 204 + Derslik 210: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 104 + Derslik 108: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Derya İLİC
-Derslik 102 + Derslik 101: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 111: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Aykan CANDEMİR
-Derslik 210 + Derslik 101: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
-Derslik 303 + Derslik 203: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ
-Derslik 105 + Derslik 109: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
+Derslik 303 + Derslik 108: Management Consultancy [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 204: Araştırma Yöntemleri (Tek) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 101 + Derslik 205: Matematik-I (Çift) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 2</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 201: Mali Tablolar Analizi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 102 + Derslik 303: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 303: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
+Derslik 202 + Derslik 204: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
+Derslik 201 + Derslik 109: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 101: Marketing Management I [2. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 202 + Derslik 105: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 211 + Derslik 204: Borçlar Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 104: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 210 + Derslik 101: Tüketici Davranışları [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 303 + Derslik 203: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 109: Introduction to Microeconomics [1. Sınıf] "Seçmeli" - ÖĞRETMEN 3
+Derslik 202 + Derslik 103: Teknoloji Yönetiminin Esasları [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN
+Derslik 101 + Derslik 105: İşletme Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 211: Vestel İşletmecilik Seminerleri I [4. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 108 + Derslik 104: Bilgi Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
+Derslik 203 + Derslik 208: Business [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 210: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] "Zorunlu" - Prof. Dr. Türker SUSMUŞ
+Derslik 111 + Derslik 101: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 5
+Derslik 108 + Derslik 205: Yönetimde Güncel Yaklaşımlar [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 103: Hizmet Pazarlaması [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 204 + Derslik 104: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Derslik 103 + Derslik 110: Organizational Behavior (Tek) [2. Sınıf] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 105 + Derslik 102: Operations Research I [3. Sınıf] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 211: Türk Dili I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 4
+Derslik 101 + Derslik 105: Örgütsel Davranış [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 209 + Derslik 208: Endüstriyel Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 108: Pazarlama Yönetimi [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Aykan CANDEMİR
+Derslik 209 + Derslik 103: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 101 + Derslik 203: Üretim Çizelgeleme [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 103: Global Marketing (Tek) [4. Sınıf] "Zorunlu" - Prof. Dr. Aykan CANDEMİR
+Derslik 102 + Derslik 201: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Derya İLİC
+Derslik 111 + Derslik 211: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 110 + Derslik 211: Yatırım Yönetimi [3. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
+Derslik 101 + Derslik 108: İstatistik I [2. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
+Derslik 205 + Derslik 210: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 210: Sosyoloji [1. Sınıf] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 105 + Derslik 204: System Analysis and Design [4. Sınıf] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 211 + Derslik 201: E-Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 108: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 203 + Derslik 211: Araştırma Yöntemleri (Çift) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 303 + Derslik 111: Organizational Behavior (Çift) [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 208: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] "Zorunlu" - Doç. Dr. Aydın KOÇAK
+Derslik 108 + Derslik 303: Dijital Dönüşümün Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN
+Derslik 204 + Derslik 102: Yönetim Muhasebesi [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 211: Consumer Behavior (Çift) [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 111 + Derslik 303: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] "Zorunlu" - Doç. Dr. Sema AYDIN</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 109: Financial Management I [3. Sınıf] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN
+Derslik 108 + Derslik 110: Global Marketing (Çift) [4. Sınıf] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 205: Consumer Behavior (Tek) [3. Sınıf] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 210 + Derslik 110: Yönetim Geliştirme [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 102: Matematik-I (Tek) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 1
+Derslik 104 + Derslik 110: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 203: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 211 + Derslik 104: Sürdürülebilir Pazarlama [3. Sınıf] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 103: Retailing I [4. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 203 + Derslik 210: Operations Management I [2. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 202: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 105 + Derslik 205: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 109 + Derslik 203: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 204 + Derslik 208: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 303: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 209 + Derslik 111: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 201 + Derslik 109: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Haydar YALÇIN
+Derslik 211 + Derslik 102: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 110: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
+Derslik 210 + Derslik 303: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK
+Derslik 211 + Derslik 111: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Sema AYDIN
+Derslik 102 + Derslik 205: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 109 + Derslik 101: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 205: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 103 + Derslik 104: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 111 + Derslik 109: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
+Derslik 211 + Derslik 303: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 104: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 105 + Derslik 103: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK
+Derslik 209 + Derslik 102: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 101 + Derslik 204: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 111: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 303 + Derslik 103: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
+Derslik 203 + Derslik 201: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
+Derslik 209 + Derslik 104: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 104 + Derslik 110: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 211 + Derslik 209: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 303 + Derslik 208: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA
+Derslik 105 + Derslik 204: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 110: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
+Derslik 210 + Derslik 211: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN
+Derslik 204 + Derslik 208: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 103 + Derslik 105: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 208: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 111 + Derslik 303: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
+Derslik 205 + Derslik 202: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN
+Derslik 104 + Derslik 204: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 105: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
+Derslik 103 + Derslik 211: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Derya İLİC
+Derslik 303 + Derslik 210: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ
+Derslik 110 + Derslik 209: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
   </si>
 </sst>
 </file>

--- a/isletme_sinav_takvimi.xlsx
+++ b/isletme_sinav_takvimi.xlsx
@@ -55,203 +55,203 @@
     <t>Cuma</t>
   </si>
   <si>
-    <t>Derslik 201 + Derslik 108: Muhasebe I [2. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
-Derslik 204 + Derslik 109: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 110 + Derslik 208: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 209: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Haluk SOYUER
-Derslik 208 + Derslik 109: Enformetri [3. Sınıf] "Zorunlu" - Doç. Dr. Haydar YALÇIN
-Derslik 105 + Derslik 104: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 208: Pazarlama Kuramı [İşletme Doktora] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
-Derslik 110 + Derslik 211: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
-Derslik 104 + Derslik 204: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 111: Stok Yönetimi [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Doç. Dr. Aydın KOÇAK
-Derslik 101 + Derslik 209: Örgüt Sosyolojisi [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 201 + Derslik 211: Üretim ve İşlemler Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 109: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. Aydın KOÇAK
-Derslik 208 + Derslik 203: Reklamcılık Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 202 + Derslik 209: Kariyer Planlama [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 110: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
-Derslik 210 + Derslik 204: Pazarlamada Güncel Konular [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 103: Human Resources Management [4. Sınıf] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
-Derslik 303 + Derslik 108: Management Consultancy [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 204: Araştırma Yöntemleri (Tek) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 101 + Derslik 205: Matematik-I (Çift) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 2</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 201: Mali Tablolar Analizi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 102 + Derslik 303: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 303: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
-Derslik 202 + Derslik 204: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
-Derslik 201 + Derslik 109: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 101: Marketing Management I [2. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
-Derslik 202 + Derslik 105: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER
-Derslik 211 + Derslik 204: Borçlar Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 104: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] "Zorunlu" - Prof. Dr. Haluk SOYUER
-Derslik 210 + Derslik 101: Tüketici Davranışları [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
-Derslik 303 + Derslik 203: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 109: Introduction to Microeconomics [1. Sınıf] "Seçmeli" - ÖĞRETMEN 3
-Derslik 202 + Derslik 103: Teknoloji Yönetiminin Esasları [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN
-Derslik 101 + Derslik 105: İşletme Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 211: Vestel İşletmecilik Seminerleri I [4. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
-Derslik 108 + Derslik 104: Bilgi Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
-Derslik 203 + Derslik 208: Business [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 210: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] "Zorunlu" - Prof. Dr. Türker SUSMUŞ
-Derslik 111 + Derslik 101: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 5
-Derslik 108 + Derslik 205: Yönetimde Güncel Yaklaşımlar [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 103: Hizmet Pazarlaması [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 204 + Derslik 104: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Derslik 103 + Derslik 110: Organizational Behavior (Tek) [2. Sınıf] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 105 + Derslik 102: Operations Research I [3. Sınıf] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 211: Türk Dili I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 4
-Derslik 101 + Derslik 105: Örgütsel Davranış [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 209 + Derslik 208: Endüstriyel Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 108: Pazarlama Yönetimi [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Aykan CANDEMİR
-Derslik 209 + Derslik 103: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 101 + Derslik 203: Üretim Çizelgeleme [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 103: Global Marketing (Tek) [4. Sınıf] "Zorunlu" - Prof. Dr. Aykan CANDEMİR
-Derslik 102 + Derslik 201: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Derya İLİC
-Derslik 111 + Derslik 211: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 110 + Derslik 211: Yatırım Yönetimi [3. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
-Derslik 101 + Derslik 108: İstatistik I [2. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
-Derslik 205 + Derslik 210: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 210: Sosyoloji [1. Sınıf] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 105 + Derslik 204: System Analysis and Design [4. Sınıf] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 211 + Derslik 201: E-Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 108: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 203 + Derslik 211: Araştırma Yöntemleri (Çift) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 303 + Derslik 111: Organizational Behavior (Çift) [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 208: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] "Zorunlu" - Doç. Dr. Aydın KOÇAK
-Derslik 108 + Derslik 303: Dijital Dönüşümün Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN
-Derslik 204 + Derslik 102: Yönetim Muhasebesi [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 211: Consumer Behavior (Çift) [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 111 + Derslik 303: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] "Zorunlu" - Doç. Dr. Sema AYDIN</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 109: Financial Management I [3. Sınıf] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN
-Derslik 108 + Derslik 110: Global Marketing (Çift) [4. Sınıf] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 205: Consumer Behavior (Tek) [3. Sınıf] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 210 + Derslik 110: Yönetim Geliştirme [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 102: Matematik-I (Tek) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 1
-Derslik 104 + Derslik 110: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 203: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 211 + Derslik 104: Sürdürülebilir Pazarlama [3. Sınıf] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 103: Retailing I [4. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 203 + Derslik 210: Operations Management I [2. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 202: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
-Derslik 105 + Derslik 205: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 109 + Derslik 203: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 204 + Derslik 208: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 303: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
-Derslik 209 + Derslik 111: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
-Derslik 201 + Derslik 109: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Haydar YALÇIN
-Derslik 211 + Derslik 102: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 110: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
-Derslik 210 + Derslik 303: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK
-Derslik 211 + Derslik 111: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Sema AYDIN
-Derslik 102 + Derslik 205: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 109 + Derslik 101: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 205: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
-Derslik 103 + Derslik 104: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 111 + Derslik 109: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
-Derslik 211 + Derslik 303: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 104: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
-Derslik 105 + Derslik 103: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK
-Derslik 209 + Derslik 102: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 101 + Derslik 204: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 111: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 303 + Derslik 103: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
-Derslik 203 + Derslik 201: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
-Derslik 209 + Derslik 104: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 104 + Derslik 110: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 211 + Derslik 209: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 303 + Derslik 208: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA
-Derslik 105 + Derslik 204: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 110: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
-Derslik 210 + Derslik 211: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN
-Derslik 204 + Derslik 208: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 103 + Derslik 105: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 208: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 111 + Derslik 303: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
-Derslik 205 + Derslik 202: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN
-Derslik 104 + Derslik 204: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 105: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
-Derslik 103 + Derslik 211: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Derya İLİC
-Derslik 303 + Derslik 210: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ
-Derslik 110 + Derslik 209: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
+    <t>Derslik 204 + Derslik 303: Yatırım Yönetimi [3. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
+Derslik 109 + Derslik 105: Örgüt Sosyolojisi [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 102 + Derslik 210: Dijital Dönüşümün Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 209: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 108 + Derslik 109: Consumer Behavior (Çift) [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 208 + Derslik 105: Borçlar Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
+  </si>
+  <si>
+    <t>Derslik 111 + Derslik 211: Pazarlama Kuramı [İşletme Doktora] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 102 + Derslik 110: Enformetri [3. Sınıf] "Zorunlu" - Doç. Dr. Haydar YALÇIN
+Derslik 202 + Derslik 210: Araştırma Yöntemleri (Tek) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 202: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] "Zorunlu" - Doç. Dr. Aydın KOÇAK
+Derslik 209 + Derslik 303: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 208 + Derslik 101: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 110 + Derslik 201: Muhasebe I [2. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
+Derslik 208 + Derslik 204: Bilgi Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
+Derslik 104 + Derslik 211: Matematik-I (Çift) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 2</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 203: Mali Tablolar Analizi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 108 + Derslik 205: Financial Management I [3. Sınıf] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 211: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 210 + Derslik 103: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
+Derslik 205 + Derslik 109: Üretim Çizelgeleme [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 208: E-Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 201 + Derslik 209: Yönetim Geliştirme [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 208: Kariyer Planlama [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 111 + Derslik 205: Sürdürülebilir Pazarlama [3. Sınıf] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 201: Human Resources Management [4. Sınıf] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
+Derslik 109 + Derslik 209: Management Consultancy [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 111 + Derslik 102: Marketing Management I [2. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 110 + Derslik 105: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 201 + Derslik 205: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 101: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 211 + Derslik 208: Tüketici Davranışları [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 110 + Derslik 102: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 303: Introduction to Microeconomics [1. Sınıf] "Seçmeli" - ÖĞRETMEN 3
+Derslik 108 + Derslik 101: Stok Yönetimi [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Doç. Dr. Aydın KOÇAK
+Derslik 104 + Derslik 102: Üretim ve İşlemler Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 110 + Derslik 102: Vestel İşletmecilik Seminerleri I [4. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 210 + Derslik 101: Reklamcılık Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 203 + Derslik 111: İşletme Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
+  </si>
+  <si>
+    <t>Derslik 111 + Derslik 205: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] "Zorunlu" - Prof. Dr. Türker SUSMUŞ
+Derslik 210 + Derslik 209: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 5
+Derslik 103 + Derslik 110: Global Marketing (Tek) [4. Sınıf] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 211: Araştırma Yöntemleri (Çift) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 102 + Derslik 303: Örgütsel Davranış [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 205 + Derslik 101: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 211: Yönetimde Güncel Yaklaşımlar [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 205 + Derslik 103: Consumer Behavior (Tek) [3. Sınıf] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 208 + Derslik 108: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 104 + Derslik 303: Organizational Behavior (Tek) [2. Sınıf] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 211 + Derslik 209: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 204 + Derslik 110: Pazarlamada Güncel Konular [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 111 + Derslik 208: Türk Dili I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 4
+Derslik 101 + Derslik 205: Hizmet Pazarlaması [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 202 + Derslik 203: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 105: Operations Management I [2. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
+Derslik 102 + Derslik 303: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 203 + Derslik 202: Operations Research I [3. Sınıf] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 205: Teknoloji Yönetiminin Esasları [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN
+Derslik 210 + Derslik 104: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] "Zorunlu" - Doç. Dr. Sema AYDIN</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 103: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. Aydın KOÇAK
+Derslik 202 + Derslik 108: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 103: Sosyoloji [1. Sınıf] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 104 + Derslik 202: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 201 + Derslik 111: Retailing I [4. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 208: İstatistik I [2. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
+Derslik 102 + Derslik 104: System Analysis and Design [4. Sınıf] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 101 + Derslik 105: Business [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 205: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
+Derslik 110 + Derslik 102: Organizational Behavior (Çift) [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Derslik 111 + Derslik 211: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 201 + Derslik 102: Global Marketing (Çift) [4. Sınıf] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 102: Yönetim Muhasebesi [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 208 + Derslik 104: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 209: Pazarlama Yönetimi [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Aykan CANDEMİR
+Derslik 205 + Derslik 203: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 109: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
+Derslik 208 + Derslik 204: Endüstriyel Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 111: Matematik-I (Tek) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 1
+Derslik 108 + Derslik 303: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 102: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 108 + Derslik 111: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
+Derslik 104 + Derslik 202: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 303 + Derslik 105: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 108: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 201 + Derslik 211: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 105 + Derslik 210: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 104 + Derslik 101: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 209: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK
+Derslik 210 + Derslik 108: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Haydar YALÇIN
+Derslik 203 + Derslik 211: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 104 + Derslik 303: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 110: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 103 + Derslik 303: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK
+Derslik 205 + Derslik 203: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 108 + Derslik 211: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 104 + Derslik 209: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 202: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 208 + Derslik 201: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
+Derslik 108 + Derslik 204: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Sema AYDIN
+Derslik 203 + Derslik 110: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 205: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 211 + Derslik 103: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 102 + Derslik 109: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
+Derslik 303 + Derslik 201: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 102: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
+Derslik 105 + Derslik 110: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
+Derslik 208 + Derslik 101: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN
+Derslik 201 + Derslik 103: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 103: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 201 + Derslik 208: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Derya İLİC
+Derslik 203 + Derslik 104: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 101 + Derslik 110: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 201: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 205 + Derslik 210: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA
+Derslik 203 + Derslik 102: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ
+Derslik 109 + Derslik 208: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 108: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
+Derslik 103 + Derslik 104: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
+Derslik 105 + Derslik 209: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ
+Derslik 203 + Derslik 201: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
   </si>
 </sst>
 </file>
